--- a/Source/Test/Data/Quotation.xlsx
+++ b/Source/Test/Data/Quotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B78194-2972-40CF-AD05-D5C7B4218461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC3696-29EF-4CB7-AEAE-2E7436E79E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20895" yWindow="13305" windowWidth="18135" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15150" yWindow="11340" windowWidth="18135" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,44 +229,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="26"/>
       <color theme="0"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans JP"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Yu Gothic"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Noto Sans JP"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Noto Sans JP"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -536,86 +533,86 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +645,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,51 +964,51 @@
   <dimension ref="A2:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="4.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="42.75">
-      <c r="R2" s="17" t="s">
+    <row r="2" spans="2:24" ht="43.5">
+      <c r="R2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="4" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="7.5" customHeight="1" thickTop="1">
-      <c r="B5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="1" t="s">
@@ -1039,205 +1036,205 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="19.5" thickBot="1">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:24" ht="18.75" thickBot="1">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="2:24" ht="8.25" customHeight="1" thickTop="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="2:24" ht="19.5" thickBot="1">
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="2:24" ht="18.75" thickBot="1">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="26.25" customHeight="1" thickTop="1">
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="25"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
     </row>
     <row r="14" spans="2:24" ht="40.5" customHeight="1" thickBot="1">
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
-    </row>
-    <row r="15" spans="2:24" ht="19.5" thickTop="1"/>
-    <row r="16" spans="2:24" ht="19.5" thickBot="1"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+    </row>
+    <row r="15" spans="2:24" ht="18.75" thickTop="1"/>
+    <row r="16" spans="2:24" ht="18.75" thickBot="1"/>
     <row r="17" spans="1:24" ht="31.5" customHeight="1" thickTop="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29" t="s">
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29" t="s">
+      <c r="T17" s="16"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="30"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" ht="36" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="31" t="s">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="31" t="s">
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="31" t="s">
+      <c r="T18" s="25"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="W18" s="32"/>
-      <c r="X18" s="34"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="27"/>
     </row>
     <row r="19" spans="1:24" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="35" t="s">
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="35"/>
-      <c r="X19" s="36"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="33"/>
     </row>
     <row r="20" spans="1:24" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="21" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
       <c r="V21" s="37" t="s">
         <v>27</v>
       </c>
@@ -1246,35 +1243,35 @@
     </row>
     <row r="22" spans="1:24" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="23" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
       <c r="V23" s="37" t="s">
         <v>19</v>
       </c>
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="1:24" ht="19.5" thickTop="1"/>
+    <row r="24" spans="1:24" ht="18.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="V21:X21"/>
@@ -1296,7 +1293,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Source/Test/Data/Quotation.xlsx
+++ b/Source/Test/Data/Quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC3696-29EF-4CB7-AEAE-2E7436E79E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE0614F-2C31-4A78-9181-7A871CD95EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="11340" windowWidth="18135" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="4620" windowWidth="28725" windowHeight="23655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>請　求　書</t>
     <rPh sb="0" eb="1">
@@ -68,10 +68,6 @@
     <rPh sb="0" eb="2">
       <t>ジュンゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEL:06-6355-4457</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -534,76 +530,17 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,6 +551,65 @@
     </xf>
     <xf numFmtId="5" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,7 +960,7 @@
   <dimension ref="A2:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18"/>
@@ -973,46 +969,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="43.5">
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="4" spans="2:24" ht="30.75" thickBot="1">
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="7.5" customHeight="1" thickTop="1">
-      <c r="B5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>2</v>
@@ -1020,7 +1016,7 @@
     </row>
     <row r="7" spans="2:24">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>3</v>
@@ -1031,245 +1027,240 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:24">
-      <c r="R9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="10" spans="2:24" ht="18.75" thickBot="1">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="8.25" customHeight="1" thickTop="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="2:24" ht="18.75" thickBot="1">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:24" ht="8.25" customHeight="1" thickTop="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="2:24" ht="18.75" thickBot="1">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="26.25" customHeight="1" thickTop="1">
+      <c r="R13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.5" customHeight="1" thickBot="1">
+      <c r="R14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:24" ht="26.25" customHeight="1" thickTop="1">
-      <c r="R13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="2:24" ht="40.5" customHeight="1" thickBot="1">
-      <c r="R14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="2:24" ht="18.75" thickTop="1"/>
     <row r="16" spans="2:24" ht="18.75" thickBot="1"/>
     <row r="17" spans="1:24" ht="31.5" customHeight="1" thickTop="1">
-      <c r="B17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18" t="s">
+      <c r="B17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="16"/>
-      <c r="X17" s="19"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="38"/>
     </row>
     <row r="18" spans="1:24" ht="36" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="24" t="s">
+      <c r="Q18" s="25"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="24" t="s">
+      <c r="T18" s="25"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T18" s="25"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="24" t="s">
+      <c r="W18" s="25"/>
+      <c r="X18" s="26"/>
+    </row>
+    <row r="19" spans="1:24" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W18" s="25"/>
-      <c r="X18" s="27"/>
-    </row>
-    <row r="19" spans="1:24" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="W19" s="32"/>
-      <c r="X19" s="33"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="1:24" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="21" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="15"/>
     </row>
     <row r="22" spans="1:24" ht="9.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="23" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" thickTop="1"/>
   </sheetData>
